--- a/GitHub1_2.xlsx
+++ b/GitHub1_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cadet\Desktop\01.Git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9267914-F1B0-4213-AC05-AF906C22CE32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE309481-E3B0-4D0B-BF20-78058461C6D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8676" yWindow="1284" windowWidth="14364" windowHeight="10956" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1284" windowWidth="14364" windowHeight="10956" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -91,17 +91,17 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>563925</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>209898</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>399417</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>181798</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7A0CEDB-81EE-DF1B-9A44-7EBB9461FA92}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A7253C6-8196-4301-E7B8-A5BC305E6557}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -118,7 +118,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="670560" y="228600"/>
-          <a:ext cx="13975125" cy="2495898"/>
+          <a:ext cx="9116697" cy="5896798"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
